--- a/assets/English-Overactive-Bladder-My-Bladder-Diary.xlsx
+++ b/assets/English-Overactive-Bladder-My-Bladder-Diary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amrhussein/Triangles Clients/SAJA/Mohamed Ghonim/OAB Web app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28236504-D004-EC48-862F-6F33E4910788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25639080-3194-614E-9D83-226CC3EC6599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,39 +16,16 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Z_C0F364CE_5427_4F5F_8712_7AA3601F4F62_.wvu.FilterData" localSheetId="0">Sheet1!$B$3:$I$7</definedName>
+    <definedName name="Z_C0F364CE_5427_4F5F_8712_7AA3601F4F62_.wvu.FilterData" localSheetId="0">Sheet1!$B$3:$I$8</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
-  <si>
-    <t>Overactive Bladder
-My Bladder Diary</t>
-  </si>
-  <si>
-    <t>Keeping a daily OAB Bladder Diary may help you and your health care provider understand your urinary symptoms.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>Time</t>
-  </si>
-  <si>
-    <t>Drinks</t>
-  </si>
-  <si>
-    <t>Trips to the bathroom</t>
-  </si>
-  <si>
-    <t>Accidental
-leaks</t>
-  </si>
-  <si>
-    <t>Did you feel a strong urge to go?</t>
-  </si>
-  <si>
-    <t>What were you doing at the time?</t>
   </si>
   <si>
     <t>What kind?</t>
@@ -57,40 +34,99 @@
     <t>How much?</t>
   </si>
   <si>
-    <t>How many times?</t>
+    <t>Date</t>
   </si>
   <si>
-    <t>How much urine?</t>
+    <t>Use this diary to help keep track of your bladder habits.</t>
   </si>
   <si>
-    <t>Yes / No</t>
+    <t>DD/MM/YY</t>
   </si>
   <si>
-    <t>Sneezing, exercising, etc.</t>
+    <t>Fluids</t>
   </si>
   <si>
-    <t>Example</t>
+    <t>Urination</t>
   </si>
   <si>
-    <t>Soda</t>
+    <t>How
+many
+times?</t>
   </si>
   <si>
-    <t>Yes - large amount</t>
+    <t>How
+much?</t>
   </si>
   <si>
-    <t>No</t>
+    <t>S • M • L</t>
   </si>
   <si>
-    <t>Laughing</t>
+    <t>Yes • No</t>
   </si>
   <si>
-    <t>Please download google sheet or excel to edit</t>
+    <t>Did you
+feel a
+strong
+urge to
+urinate?</t>
   </si>
   <si>
-    <t>350 ml</t>
+    <t>What activity did this interrupt?</t>
   </si>
   <si>
-    <t>500 ml</t>
+    <t>Accidents</t>
+  </si>
+  <si>
+    <t>Did you
+have an
+accident?</t>
+  </si>
+  <si>
+    <t>How much
+did you leak?</t>
+  </si>
+  <si>
+    <t>What were you
+doing at the time?</t>
+  </si>
+  <si>
+    <t>DAY 1</t>
+  </si>
+  <si>
+    <t>DAY 2</t>
+  </si>
+  <si>
+    <t>DAY 3</t>
+  </si>
+  <si>
+    <t>6am-9am</t>
+  </si>
+  <si>
+    <t>9am-12pm</t>
+  </si>
+  <si>
+    <t>12pm-3pm</t>
+  </si>
+  <si>
+    <t>3pm-6pm</t>
+  </si>
+  <si>
+    <t>6pm-9pm</t>
+  </si>
+  <si>
+    <t>9pm-12am</t>
+  </si>
+  <si>
+    <t>12am-3am</t>
+  </si>
+  <si>
+    <t>3am-6am</t>
+  </si>
+  <si>
+    <t>Assessing your overactive bladder (OAB) symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Please download google sheet app or excel app to fill it فح Use this diary to help keep track of your bladder habits</t>
   </si>
 </sst>
 </file>
@@ -100,7 +136,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h&quot;:&quot;mm&quot; &quot;AM/PM"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -212,14 +248,36 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Merriweather"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Merriweather"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,8 +350,26 @@
         <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF942093"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -318,37 +394,61 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -374,7 +474,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -385,40 +485,49 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -444,6 +553,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF942093"/>
+      <color rgb="FFFF40FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -752,40 +867,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA1002"/>
+  <dimension ref="A1:AA998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="118" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="10.140625" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" customWidth="1"/>
-    <col min="11" max="1024" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" customWidth="1"/>
+    <col min="12" max="1024" width="13.42578125" customWidth="1"/>
     <col min="1025" max="1025" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="12" t="s">
-        <v>0</v>
+      <c r="B1" s="18" t="s">
+        <v>29</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -803,20 +920,20 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
-      <c r="B2" s="13" t="s">
-        <v>1</v>
+      <c r="B2" s="17" t="s">
+        <v>4</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -834,30 +951,26 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="C3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -875,32 +988,20 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
     </row>
-    <row r="4" spans="1:27" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6" t="s">
-        <v>8</v>
+    <row r="4" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="6" t="s">
+        <v>5</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -918,36 +1019,38 @@
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
     </row>
-    <row r="5" spans="1:27" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>14</v>
+    <row r="5" spans="1:27" ht="86" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="7" t="s">
+        <v>0</v>
       </c>
-      <c r="B5" s="8">
-        <v>0.60416666666666674</v>
+      <c r="C5" s="7" t="s">
+        <v>1</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="9">
-        <v>4</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="9" t="s">
+      <c r="J5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="K5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -965,18 +1068,20 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+    <row r="6" spans="1:27" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -994,18 +1099,26 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="10"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1023,18 +1136,20 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
     </row>
-    <row r="8" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="B8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1052,18 +1167,20 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
     </row>
-    <row r="9" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="B9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1081,18 +1198,20 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
     </row>
-    <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="B10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1110,18 +1229,20 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
     </row>
-    <row r="11" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="B11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1139,18 +1260,20 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
     </row>
-    <row r="12" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="B12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1168,18 +1291,20 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
     </row>
-    <row r="13" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="B13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1197,18 +1322,20 @@
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
     </row>
-    <row r="14" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="B14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1226,18 +1353,20 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
     </row>
-    <row r="15" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="B15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1255,18 +1384,20 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
     </row>
-    <row r="16" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" ht="25" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="B16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="13"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -1284,18 +1415,20 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
     </row>
-    <row r="17" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="B17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1313,18 +1446,20 @@
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
     </row>
-    <row r="18" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="B18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -1342,18 +1477,20 @@
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
     </row>
-    <row r="19" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+      <c r="B19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -1371,18 +1508,20 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
     </row>
-    <row r="20" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
+      <c r="B20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1400,18 +1539,20 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
     </row>
-    <row r="21" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="B21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1429,18 +1570,20 @@
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
     </row>
-    <row r="22" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
+      <c r="B22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1458,18 +1601,20 @@
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
     </row>
-    <row r="23" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="B23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1487,18 +1632,20 @@
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
     </row>
-    <row r="24" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
+      <c r="B24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -1516,18 +1663,20 @@
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
     </row>
-    <row r="25" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="B25" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="13"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1545,18 +1694,20 @@
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
     </row>
-    <row r="26" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
+      <c r="B26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -1574,18 +1725,20 @@
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
     </row>
-    <row r="27" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
+      <c r="B27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -1603,18 +1756,20 @@
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
     </row>
-    <row r="28" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
+      <c r="B28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -1632,18 +1787,20 @@
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
     </row>
-    <row r="29" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
+      <c r="B29" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -1661,18 +1818,20 @@
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
     </row>
-    <row r="30" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
+      <c r="B30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -1690,18 +1849,20 @@
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
     </row>
-    <row r="31" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
+      <c r="B31" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -1719,18 +1880,20 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
     </row>
-    <row r="32" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
+      <c r="B32" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -1748,18 +1911,20 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
     </row>
-    <row r="33" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
+      <c r="B33" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -1777,18 +1942,20 @@
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
     </row>
-    <row r="34" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
+      <c r="B34" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -1808,14 +1975,14 @@
     </row>
     <row r="35" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -1837,14 +2004,14 @@
     </row>
     <row r="36" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -1866,14 +2033,14 @@
     </row>
     <row r="37" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -1893,18 +2060,16 @@
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
     </row>
-    <row r="38" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -29764,130 +29929,19 @@
       <c r="Z998" s="2"/>
       <c r="AA998" s="2"/>
     </row>
-    <row r="999" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A999" s="2"/>
-      <c r="B999" s="2"/>
-      <c r="C999" s="2"/>
-      <c r="D999" s="2"/>
-      <c r="E999" s="2"/>
-      <c r="F999" s="2"/>
-      <c r="G999" s="2"/>
-      <c r="H999" s="2"/>
-      <c r="I999" s="2"/>
-      <c r="J999" s="2"/>
-      <c r="K999" s="2"/>
-      <c r="L999" s="2"/>
-      <c r="M999" s="2"/>
-      <c r="N999" s="2"/>
-      <c r="O999" s="2"/>
-      <c r="P999" s="2"/>
-      <c r="Q999" s="2"/>
-      <c r="R999" s="2"/>
-      <c r="S999" s="2"/>
-      <c r="T999" s="2"/>
-      <c r="U999" s="2"/>
-      <c r="V999" s="2"/>
-      <c r="W999" s="2"/>
-      <c r="X999" s="2"/>
-      <c r="Y999" s="2"/>
-      <c r="Z999" s="2"/>
-      <c r="AA999" s="2"/>
-    </row>
-    <row r="1000" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1000" s="2"/>
-      <c r="B1000" s="2"/>
-      <c r="C1000" s="2"/>
-      <c r="D1000" s="2"/>
-      <c r="E1000" s="2"/>
-      <c r="F1000" s="2"/>
-      <c r="G1000" s="2"/>
-      <c r="H1000" s="2"/>
-      <c r="I1000" s="2"/>
-      <c r="J1000" s="2"/>
-      <c r="K1000" s="2"/>
-      <c r="L1000" s="2"/>
-      <c r="M1000" s="2"/>
-      <c r="N1000" s="2"/>
-      <c r="O1000" s="2"/>
-      <c r="P1000" s="2"/>
-      <c r="Q1000" s="2"/>
-      <c r="R1000" s="2"/>
-      <c r="S1000" s="2"/>
-      <c r="T1000" s="2"/>
-      <c r="U1000" s="2"/>
-      <c r="V1000" s="2"/>
-      <c r="W1000" s="2"/>
-      <c r="X1000" s="2"/>
-      <c r="Y1000" s="2"/>
-      <c r="Z1000" s="2"/>
-      <c r="AA1000" s="2"/>
-    </row>
-    <row r="1001" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1001" s="2"/>
-      <c r="B1001" s="2"/>
-      <c r="C1001" s="2"/>
-      <c r="D1001" s="2"/>
-      <c r="E1001" s="2"/>
-      <c r="F1001" s="2"/>
-      <c r="G1001" s="2"/>
-      <c r="H1001" s="2"/>
-      <c r="I1001" s="2"/>
-      <c r="J1001" s="2"/>
-      <c r="K1001" s="2"/>
-      <c r="L1001" s="2"/>
-      <c r="M1001" s="2"/>
-      <c r="N1001" s="2"/>
-      <c r="O1001" s="2"/>
-      <c r="P1001" s="2"/>
-      <c r="Q1001" s="2"/>
-      <c r="R1001" s="2"/>
-      <c r="S1001" s="2"/>
-      <c r="T1001" s="2"/>
-      <c r="U1001" s="2"/>
-      <c r="V1001" s="2"/>
-      <c r="W1001" s="2"/>
-      <c r="X1001" s="2"/>
-      <c r="Y1001" s="2"/>
-      <c r="Z1001" s="2"/>
-      <c r="AA1001" s="2"/>
-    </row>
-    <row r="1002" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1002" s="2"/>
-      <c r="B1002" s="2"/>
-      <c r="C1002" s="2"/>
-      <c r="D1002" s="2"/>
-      <c r="E1002" s="2"/>
-      <c r="F1002" s="2"/>
-      <c r="G1002" s="2"/>
-      <c r="H1002" s="2"/>
-      <c r="I1002" s="2"/>
-      <c r="J1002" s="2"/>
-      <c r="K1002" s="2"/>
-      <c r="L1002" s="2"/>
-      <c r="M1002" s="2"/>
-      <c r="N1002" s="2"/>
-      <c r="O1002" s="2"/>
-      <c r="P1002" s="2"/>
-      <c r="Q1002" s="2"/>
-      <c r="R1002" s="2"/>
-      <c r="S1002" s="2"/>
-      <c r="T1002" s="2"/>
-      <c r="U1002" s="2"/>
-      <c r="V1002" s="2"/>
-      <c r="W1002" s="2"/>
-      <c r="X1002" s="2"/>
-      <c r="Y1002" s="2"/>
-      <c r="Z1002" s="2"/>
-      <c r="AA1002" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B38:I38"/>
+  <mergeCells count="9">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="B34:K34"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="E3:H4"/>
+    <mergeCell ref="I3:K4"/>
   </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.74805555555555614" right="0.74805555555555614" top="1.3776388888888891" bottom="1.3776388888888891" header="0.98388888888888903" footer="0.98388888888888903"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
